--- a/installer/init/schedule.xlsx
+++ b/installer/init/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Python\Autobook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD576F-954B-4513-9312-9B8C1E93928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99AAC02-08E0-4A0B-A169-36842FE6D69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -892,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1185,77 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
